--- a/curation/draft/collection/collection_specialization_FT_6MWT.xlsx
+++ b/curation/draft/collection/collection_specialization_FT_6MWT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210495E-423B-4572-AD68-57E99EE5EAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F900C729-2A5F-48F6-B5CC-115FECD28420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="151">
   <si>
     <t>package_date</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>C82525</t>
+  </si>
+  <si>
+    <t>SIXMW1_PERF</t>
+  </si>
+  <si>
+    <t>Six Minute Walk Test Performed</t>
   </si>
 </sst>
 </file>
@@ -833,12 +839,15 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="A30:XFD30"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" customWidth="1"/>
     <col min="15" max="15" width="33.85546875" customWidth="1"/>
     <col min="17" max="17" width="36.7109375" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" customWidth="1"/>
@@ -970,7 +979,10 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="K2" t="s">
+        <v>150</v>
       </c>
       <c r="N2" t="s">
         <v>39</v>
@@ -1020,7 +1032,10 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -1079,7 +1094,10 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="K4" t="s">
+        <v>150</v>
       </c>
       <c r="N4" t="s">
         <v>51</v>

--- a/curation/draft/collection/collection_specialization_FT_6MWT.xlsx
+++ b/curation/draft/collection/collection_specialization_FT_6MWT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD62E31-070A-423C-88A7-D59C2912A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE8A7E-0F7D-45E2-8201-24B5F7405917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_FT!$A$1:$AG$17</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="126">
   <si>
     <t>package_date</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>FTSTAT</t>
+  </si>
+  <si>
+    <t>C115409</t>
   </si>
 </sst>
 </file>
@@ -778,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1111,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>

--- a/curation/draft/collection/collection_specialization_FT_6MWT.xlsx
+++ b/curation/draft/collection/collection_specialization_FT_6MWT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE8A7E-0F7D-45E2-8201-24B5F7405917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F5B51B-933F-4E73-9B8C-C3E0EFE13754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="127">
   <si>
     <t>package_date</t>
   </si>
@@ -394,13 +394,16 @@
     <t>FTASTDEV in SUPPFT</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
     <t>FTSTAT</t>
   </si>
   <si>
     <t>C115409</t>
+  </si>
+  <si>
+    <t>SIXMW1</t>
+  </si>
+  <si>
+    <t>Six Minute Walk Test</t>
   </si>
 </sst>
 </file>
@@ -782,7 +785,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,9 +936,7 @@
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
@@ -998,9 +999,7 @@
       <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>51</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>52</v>
@@ -1066,9 +1065,7 @@
       <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -1119,17 +1116,15 @@
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>58</v>
@@ -1144,7 +1139,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>39</v>
